--- a/Daily/ADF - BIC/Normal.xlsx
+++ b/Daily/ADF - BIC/Normal.xlsx
@@ -488,13 +488,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-8724.835359154738</v>
+        <v>4325.630069128913</v>
       </c>
       <c r="C2" t="n">
-        <v>-8722.795158250221</v>
+        <v>4328.012085175767</v>
       </c>
       <c r="D2" t="n">
-        <v>-8725.322890437254</v>
+        <v>4324.934403083768</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -509,13 +509,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-12305.43040795334</v>
+        <v>2860.441966151079</v>
       </c>
       <c r="C3" t="n">
-        <v>-12304.46110149321</v>
+        <v>2861.605138983855</v>
       </c>
       <c r="D3" t="n">
-        <v>-12310.66678463996</v>
+        <v>2854.985235866912</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -530,13 +530,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-13029.58943480227</v>
+        <v>2395.918589134303</v>
       </c>
       <c r="C4" t="n">
-        <v>-13032.67816385839</v>
+        <v>2392.16218408312</v>
       </c>
       <c r="D4" t="n">
-        <v>-13034.44766123761</v>
+        <v>2390.843985813044</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -551,13 +551,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-12516.18490519046</v>
+        <v>1939.777106691989</v>
       </c>
       <c r="C5" t="n">
-        <v>-12520.77857428505</v>
+        <v>1935.429390424275</v>
       </c>
       <c r="D5" t="n">
-        <v>-12521.79921897788</v>
+        <v>1934.012127728586</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -572,13 +572,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-13953.48793169231</v>
+        <v>-242.0651842765789</v>
       </c>
       <c r="C6" t="n">
-        <v>-13950.83183489132</v>
+        <v>-239.2807110316635</v>
       </c>
       <c r="D6" t="n">
-        <v>-13956.17588732862</v>
+        <v>-245.0533241687193</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -593,13 +593,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-14953.42309324127</v>
+        <v>324.5687807491834</v>
       </c>
       <c r="C7" t="n">
-        <v>-14959.80582973285</v>
+        <v>318.5210123917122</v>
       </c>
       <c r="D7" t="n">
-        <v>-14957.26592393193</v>
+        <v>320.4820255406727</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -660,10 +660,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.1056562951669404</v>
+        <v>-0.3100907844353852</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6480387326511474</v>
+        <v>0.5721585875312943</v>
       </c>
       <c r="D2" t="n">
         <v>7</v>
@@ -684,10 +684,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.476286222627032</v>
+        <v>1.427836556830217</v>
       </c>
       <c r="C3" t="n">
-        <v>0.965216494321285</v>
+        <v>0.9615618120030845</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
@@ -708,10 +708,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2.548900296926014</v>
+        <v>2.391023432647373</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9984479067160478</v>
+        <v>0.997184526850783</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
@@ -732,10 +732,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2.347677357321064</v>
+        <v>2.173648051963962</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9967182480107579</v>
+        <v>0.9941688410142872</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -756,10 +756,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.463591531521522</v>
+        <v>1.398025337358197</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9642849944317092</v>
+        <v>0.9591763133770277</v>
       </c>
       <c r="D6" t="n">
         <v>12</v>
@@ -780,10 +780,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-4.484016994120244</v>
+        <v>-4.379132914368249</v>
       </c>
       <c r="C7" t="n">
-        <v>0.001602989102876412</v>
+        <v>0.00236362373467551</v>
       </c>
       <c r="D7" t="n">
         <v>3</v>

--- a/Daily/ADF - BIC/Normal.xlsx
+++ b/Daily/ADF - BIC/Normal.xlsx
@@ -488,13 +488,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4325.630069128913</v>
+        <v>-8724.835359154738</v>
       </c>
       <c r="C2" t="n">
-        <v>4328.012085175767</v>
+        <v>-8722.795158250221</v>
       </c>
       <c r="D2" t="n">
-        <v>4324.934403083768</v>
+        <v>-8725.322890437254</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -509,13 +509,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2860.441966151079</v>
+        <v>-12305.43040795334</v>
       </c>
       <c r="C3" t="n">
-        <v>2861.605138983855</v>
+        <v>-12304.46110149321</v>
       </c>
       <c r="D3" t="n">
-        <v>2854.985235866912</v>
+        <v>-12310.66678463996</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -530,13 +530,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2395.918589134303</v>
+        <v>-13029.58943480227</v>
       </c>
       <c r="C4" t="n">
-        <v>2392.16218408312</v>
+        <v>-13032.67816385839</v>
       </c>
       <c r="D4" t="n">
-        <v>2390.843985813044</v>
+        <v>-13034.44766123761</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -551,13 +551,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1939.777106691989</v>
+        <v>-12516.18490519046</v>
       </c>
       <c r="C5" t="n">
-        <v>1935.429390424275</v>
+        <v>-12520.77857428505</v>
       </c>
       <c r="D5" t="n">
-        <v>1934.012127728586</v>
+        <v>-12521.79921897788</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -572,13 +572,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-242.0651842765789</v>
+        <v>-13953.48793169231</v>
       </c>
       <c r="C6" t="n">
-        <v>-239.2807110316635</v>
+        <v>-13950.83183489132</v>
       </c>
       <c r="D6" t="n">
-        <v>-245.0533241687193</v>
+        <v>-13956.17588732862</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -593,13 +593,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>324.5687807491834</v>
+        <v>-14953.42309324127</v>
       </c>
       <c r="C7" t="n">
-        <v>318.5210123917122</v>
+        <v>-14959.80582973285</v>
       </c>
       <c r="D7" t="n">
-        <v>320.4820255406727</v>
+        <v>-14957.26592393193</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -660,10 +660,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.3100907844353852</v>
+        <v>-0.1056562951669404</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5721585875312943</v>
+        <v>0.6480387326511474</v>
       </c>
       <c r="D2" t="n">
         <v>7</v>
@@ -684,10 +684,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.427836556830217</v>
+        <v>1.476286222627032</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9615618120030845</v>
+        <v>0.965216494321285</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
@@ -708,10 +708,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2.391023432647373</v>
+        <v>2.548900296926014</v>
       </c>
       <c r="C4" t="n">
-        <v>0.997184526850783</v>
+        <v>0.9984479067160478</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
@@ -732,10 +732,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2.173648051963962</v>
+        <v>2.347677357321064</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9941688410142872</v>
+        <v>0.9967182480107579</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -756,10 +756,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.398025337358197</v>
+        <v>1.463591531521522</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9591763133770277</v>
+        <v>0.9642849944317092</v>
       </c>
       <c r="D6" t="n">
         <v>12</v>
@@ -780,10 +780,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-4.379132914368249</v>
+        <v>-4.484016994120244</v>
       </c>
       <c r="C7" t="n">
-        <v>0.00236362373467551</v>
+        <v>0.001602989102876412</v>
       </c>
       <c r="D7" t="n">
         <v>3</v>
